--- a/Sura/Emisión Motor -Polizas Complementarias.xlsx
+++ b/Sura/Emisión Motor -Polizas Complementarias.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\Polizas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2A691D-1E58-4EC3-AE99-7326375BD823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6360095-7E7C-4C39-BBF0-CA936DAE0686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C773E428-C9E9-4E09-8326-00AF78A9998E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Ambiente</t>
   </si>
@@ -135,23 +132,32 @@
     <t>Sin Actividad</t>
   </si>
   <si>
-    <t>Cupón</t>
-  </si>
-  <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
     <t>Destino</t>
   </si>
   <si>
-    <t>REMIS MULTIPLATAFORMA</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
+    <t>REMIS PLATAFORMA UBER</t>
+  </si>
+  <si>
+    <t>AKL004</t>
+  </si>
+  <si>
+    <t>AKJ121MA5</t>
+  </si>
+  <si>
+    <t>LKAS123AS16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +178,12 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,42 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Emisión_Motor"/>
-      <sheetName val="Motor_Answer"/>
-      <sheetName val="EmisionFlota"/>
-      <sheetName val="EmisionAP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>i-preproducciongestion.segurossura.com.ar</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="R19" t="str">
-            <v>AON038</v>
-          </cell>
-          <cell r="S19" t="str">
-            <v>ABC12AON038</v>
-          </cell>
-          <cell r="T19" t="str">
-            <v>ZAZ12AAON038</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E79AA6-9F00-4408-A888-D0FC5D295EFF}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -656,7 +632,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="3">
-        <v>3942691124</v>
+        <v>3595241155</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -668,13 +644,14 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
+      <c r="Q2" s="1"/>
       <c r="R2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -688,17 +665,14 @@
       <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="str">
-        <f>[1]Emisión_Motor!$R19</f>
-        <v>AON038</v>
-      </c>
-      <c r="X2" t="str">
-        <f>[1]Emisión_Motor!$S19</f>
-        <v>ABC12AON038</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>[1]Emisión_Motor!$T19</f>
-        <v>ZAZ12AAON038</v>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
         <v>34</v>
@@ -711,8 +685,9 @@
       <c r="AE2" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AC566C0D-9A82-4815-A579-8DCE89299403}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5BFFAD7C-8378-46B3-BF83-4BEE05BD6E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/Emisión Motor -Polizas Complementarias.xlsx
+++ b/Sura/Emisión Motor -Polizas Complementarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6360095-7E7C-4C39-BBF0-CA936DAE0686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A9090-E025-4182-BD62-CC6FD6E91CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C773E428-C9E9-4E09-8326-00AF78A9998E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Ambiente</t>
   </si>
@@ -105,18 +105,9 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>su</t>
   </si>
   <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>Menos de 5 vehículos</t>
   </si>
   <si>
@@ -144,13 +135,19 @@
     <t>REMIS PLATAFORMA UBER</t>
   </si>
   <si>
-    <t>AKL004</t>
-  </si>
-  <si>
-    <t>AKJ121MA5</t>
-  </si>
-  <si>
-    <t>LKAS123AS16</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
+    <t>RGA011</t>
+  </si>
+  <si>
+    <t>1234567RGA010</t>
   </si>
 </sst>
 </file>
@@ -529,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E79AA6-9F00-4408-A888-D0FC5D295EFF}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,46 +612,46 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3">
-        <v>3595241155</v>
+        <v>5934358994</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T2">
         <v>147</v>
@@ -663,7 +660,7 @@
         <v>900000</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
         <v>39</v>
@@ -672,13 +669,13 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -686,9 +683,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5BFFAD7C-8378-46B3-BF83-4BEE05BD6E94}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/Emisión Motor -Polizas Complementarias.xlsx
+++ b/Sura/Emisión Motor -Polizas Complementarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A9090-E025-4182-BD62-CC6FD6E91CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A36AE-4E6B-4565-8DE1-86A1BDCE238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C773E428-C9E9-4E09-8326-00AF78A9998E}"/>
   </bookViews>
@@ -144,10 +144,10 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>RGA011</t>
-  </si>
-  <si>
-    <t>1234567RGA010</t>
+    <t>RGM011</t>
+  </si>
+  <si>
+    <t>1234567RGM011</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>147</v>
       </c>
       <c r="U2">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="V2" t="s">
         <v>30</v>

--- a/Sura/Emisión Motor -Polizas Complementarias.xlsx
+++ b/Sura/Emisión Motor -Polizas Complementarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A36AE-4E6B-4565-8DE1-86A1BDCE238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800B3A1-E7CD-4696-A2DB-DD907317C88B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C773E428-C9E9-4E09-8326-00AF78A9998E}"/>
   </bookViews>
@@ -144,10 +144,10 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>RGM011</t>
-  </si>
-  <si>
-    <t>1234567RGM011</t>
+    <t>RGM015</t>
+  </si>
+  <si>
+    <t>1234567RGM015</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E79AA6-9F00-4408-A888-D0FC5D295EFF}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
